--- a/Tables/aq_hmf_metrics_outlet_min_30_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_min_30_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0381626465249304</v>
+        <v>0.06750509694667201</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>21.95833333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>3.066854884246189</v>
+        <v>2.555758708883709</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007235992147622631</v>
+        <v>0.006864442739126485</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
@@ -571,19 +571,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01466599711193568</v>
+        <v>0.01679818770048384</v>
       </c>
       <c r="K2" t="n">
         <v>0.008554859160019199</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00153808049340288</v>
+        <v>0.0079618558490496</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.002157434799866182</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.005932945699632</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>1.611111111111111</v>
       </c>
       <c r="H13" t="n">
-        <v>145.1153846153846</v>
+        <v>139.1923076923077</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01780205627724632</v>
+        <v>0.01469329172037356</v>
       </c>
       <c r="J13" t="n">
         <v>0.0297748243977408</v>
@@ -1336,10 +1336,10 @@
         <v>0.010350373769232</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0194729937941088</v>
+        <v>0.01454845027773694</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0402064108830216</v>
+        <v>0.02404937888662447</v>
       </c>
       <c r="N13" t="n">
         <v>0.0005871781310976001</v>
@@ -1444,19 +1444,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01613195986984049</v>
+        <v>0.03869917919794855</v>
       </c>
       <c r="C15" t="n">
         <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>1.806169755231622</v>
+        <v>2.067343968795874</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001478441761253178</v>
+        <v>0.008538227524666707</v>
       </c>
       <c r="F15" t="n">
-        <v>76.667</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
         <v>2.347826086956522</v>
@@ -1465,40 +1465,40 @@
         <v>158.5862068965517</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00232771275095184</v>
+        <v>0.0069917692276992</v>
       </c>
       <c r="J15" t="n">
-        <v>0.00307534546162368</v>
+        <v>0.02087234762886</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003974302415592126</v>
+        <v>0.01290079285532352</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003317667648680814</v>
+        <v>0.007842215616293908</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001549571984604917</v>
+        <v>0.0047137355524224</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0023517707438232</v>
+        <v>0.00642226080888</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00117863776940112</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.003054079074183286</v>
+        <v>0.01486049986786176</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0036943290748224</v>
+        <v>0.005094993575044801</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002552445542604568</v>
+        <v>0.0115967680891776</v>
       </c>
       <c r="T15" t="n">
-        <v>0.00232750886965632</v>
+        <v>0.0118740466510848</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1927,43 +1927,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.240391560347805</v>
+        <v>0.0426261420586848</v>
       </c>
       <c r="C22" t="n">
-        <v>49.45454545454545</v>
+        <v>28.84210526315789</v>
       </c>
       <c r="D22" t="n">
-        <v>14.56017316017316</v>
+        <v>8.362280701754386</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4010855580459909</v>
+        <v>0.0128132598191136</v>
       </c>
       <c r="F22" t="n">
-        <v>36.667</v>
+        <v>33.333</v>
       </c>
       <c r="G22" t="n">
-        <v>3.636363636363636</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>208.6363636363636</v>
+        <v>197.9</v>
       </c>
       <c r="I22" t="n">
-        <v>0.442585516314816</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.190894056995376</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4448282105655361</v>
+        <v>0.005602673291986768</v>
       </c>
       <c r="L22" t="n">
-        <v>0.619717585862592</v>
+        <v>0.01170197083766592</v>
       </c>
       <c r="M22" t="n">
-        <v>0.489280158168768</v>
+        <v>0.0231785848833504</v>
       </c>
       <c r="N22" t="n">
-        <v>0.19511439981264</v>
+        <v>0.01723278848387956</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0550479497904</v>
+        <v>0</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_min_30_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_min_30_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -568,16 +568,16 @@
         <v>162.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.04737548887739136</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01679818770048384</v>
+        <v>0.1289974432294656</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008554859160019199</v>
+        <v>0.018593974151424</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0079618558490496</v>
+        <v>0.011091142476288</v>
       </c>
       <c r="M2" t="n">
         <v>0.002157434799866182</v>
@@ -586,19 +586,19 @@
         <v>0.005932945699632</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.0062632333983744</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.009150192542937601</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.01074535979908608</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.00122328777312</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00179850486821376</v>
+        <v>0.0007714603176792624</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>19.53846153846154</v>
       </c>
       <c r="D3" t="n">
-        <v>3.134940676607343</v>
+        <v>3.517825396825397</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007403722712035999</v>
+        <v>0.000231235291666535</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>16.667</v>
       </c>
       <c r="G3" t="n">
-        <v>3.230769230769231</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
-        <v>153.7333333333333</v>
+        <v>127.8888888888889</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00040551989678928</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00031479272028288</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000255422487027456</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.076493240345511e-05</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001098145433929822</v>
+        <v>1.100958995808e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00110829872244672</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00033395756206176</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00049706259847776</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.850411529472e-05</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.240730946816e-05</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00021774522361536</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00017615343932928</v>
+        <v>0</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,65 +681,65 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01493212547609479</v>
+        <v>0.03225565200162854</v>
       </c>
       <c r="C4" t="n">
-        <v>18.2</v>
+        <v>42.07692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>1.86209037138385</v>
+        <v>17.51175213675214</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0021495293003498</v>
+        <v>0.01405086110472437</v>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>43.333</v>
       </c>
       <c r="G4" t="n">
-        <v>2.444444444444445</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="H4" t="n">
-        <v>96.20689655172414</v>
+        <v>243.2307692307692</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00672889827734208</v>
+        <v>0.002480827603887396</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00681883905456576</v>
+        <v>0.001821067731584686</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00387721059690384</v>
+        <v>0.009756943278405237</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00175317526017648</v>
+        <v>0.01151684662133387</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00020367741422448</v>
+        <v>0.002852707086915893</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.002501623496030456</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.01305492711473683</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.01894138787899029</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.01839922673794344</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.0255593747315695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.003253945476499244</v>
       </c>
       <c r="T4" t="n">
-        <v>0.00260376802508592</v>
+        <v>0.004524533710179937</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.114046666018432</v>
+        <v>0.07816010780420693</v>
       </c>
       <c r="C5" t="n">
-        <v>19.44444444444444</v>
+        <v>18.23333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>3.112823136679346</v>
+        <v>3.367849927849928</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01627905520207356</v>
+        <v>0.01387089372797073</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>43.333</v>
       </c>
       <c r="G5" t="n">
-        <v>1.625</v>
+        <v>2.307692307692307</v>
       </c>
       <c r="H5" t="n">
-        <v>202.037037037037</v>
+        <v>122.6153846153846</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.0215543305623744</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.03271544509928492</v>
       </c>
       <c r="K5" t="n">
-        <v>0.059237710413336</v>
+        <v>0.01794998959436215</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0663755945694912</v>
+        <v>0.007147262695749151</v>
       </c>
       <c r="M5" t="n">
-        <v>0.025063807262592</v>
+        <v>0.001604219585669579</v>
       </c>
       <c r="N5" t="n">
-        <v>0.043684965586752</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.012416370897168</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.006850411529472</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.020673563365728</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.003180548210112</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,47 +819,47 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7513107292430209</v>
+        <v>0.0463958101265184</v>
       </c>
       <c r="C6" t="n">
-        <v>36.13333333333333</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>14.42222222222222</v>
+        <v>2.078996235246235</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2902481307195456</v>
+        <v>0.01627905520207356</v>
       </c>
       <c r="F6" t="n">
-        <v>26.667</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
-        <v>2.375</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="H6" t="n">
-        <v>159</v>
+        <v>187.9</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3866690322055024</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3289976861816553</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.205675450920576</v>
+        <v>0.00323437287212928</v>
       </c>
       <c r="L6" t="n">
-        <v>0.129148606647144</v>
+        <v>0.02257210598961024</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1003585289067648</v>
+        <v>0.025063807262592</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00366986331936</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.007523219804688001</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0434634145789544</v>
+        <v>0</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1052497227388078</v>
+        <v>0.01023125272430287</v>
       </c>
       <c r="C7" t="n">
-        <v>18.89655172413793</v>
+        <v>18.26666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>2.531450845751049</v>
+        <v>1.99243931993932</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02086036786906372</v>
+        <v>0.001252820793503518</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>53.333</v>
       </c>
       <c r="G7" t="n">
-        <v>2.083333333333333</v>
+        <v>4.375</v>
       </c>
       <c r="H7" t="n">
-        <v>143.36</v>
+        <v>216.375</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01723612472326083</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0156528408340512</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0153400286749248</v>
+        <v>0.001161511740577441</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01343601723511567</v>
+        <v>0.001436466055715714</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0518123536304976</v>
+        <v>0.003733471624240996</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.00203403533684165</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.0009491489831638106</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.000988375744421858</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0095090236230528</v>
+        <v>0.0003367711239399382</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.0008143018943068831</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.001390307330409985</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01279375517517557</v>
+        <v>4.822812045525668e-05</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,47 +957,47 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0726921283636944</v>
+        <v>0.008741148412325759</v>
       </c>
       <c r="C8" t="n">
-        <v>19.53571428571428</v>
+        <v>25.90476190476191</v>
       </c>
       <c r="D8" t="n">
-        <v>4.561654908877131</v>
+        <v>6.131216931216931</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01810978663877938</v>
+        <v>0.002036326435563209</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>26.667</v>
       </c>
       <c r="G8" t="n">
-        <v>2.388888888888889</v>
+        <v>2.375</v>
       </c>
       <c r="H8" t="n">
-        <v>144.5555555555555</v>
+        <v>135.2380952380952</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.00393123914021664</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.004050023519621908</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02478524944549722</v>
+        <v>0.00235747942009776</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03133173610898444</v>
+        <v>0.00288298345930056</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00378240579448704</v>
+        <v>0.00263740843884672</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.00366986331936</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.003020052854278656</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2052233441477604</v>
+        <v>0.1052497227388078</v>
       </c>
       <c r="C9" t="n">
-        <v>22.625</v>
+        <v>19.5</v>
       </c>
       <c r="D9" t="n">
-        <v>4.586791383219955</v>
+        <v>3.483205782312925</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04305078856951004</v>
+        <v>0.02086036786906372</v>
       </c>
       <c r="F9" t="n">
-        <v>53.333</v>
+        <v>80</v>
       </c>
       <c r="G9" t="n">
-        <v>3.208333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>151.3333333333333</v>
+        <v>143.36</v>
       </c>
       <c r="I9" t="n">
-        <v>0.097648946489304</v>
+        <v>0.02315180047786052</v>
       </c>
       <c r="J9" t="n">
-        <v>0.043671373500384</v>
+        <v>0.0156528408340512</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0687161518420608</v>
+        <v>0.0153400286749248</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03683808799973576</v>
+        <v>0.01343601723511567</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0193157139375648</v>
+        <v>0.0518123536304976</v>
       </c>
       <c r="N9" t="n">
-        <v>0.07989816712435201</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1567961336074291</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.028380276336384</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.00122328777312</v>
+        <v>0.0122328777312</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02212112056392</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02415993351912</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.04321631044878337</v>
+        <v>0.0211343350936032</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.09457774661402281</v>
+        <v>0.01632844519560576</v>
       </c>
       <c r="C10" t="n">
-        <v>20.32</v>
+        <v>18.06666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>4.407539682539682</v>
+        <v>1.816244715323663</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03187481994528391</v>
+        <v>0.001726331157751389</v>
       </c>
       <c r="F10" t="n">
         <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>1.533333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>156.4761904761905</v>
+        <v>144.0384615384615</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03856692724709237</v>
+        <v>0.00330165369965088</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03477251099083287</v>
+        <v>0.003532983855904573</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04935307471122904</v>
+        <v>0.00419016838552704</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05382466201728</v>
+        <v>0.00370807649932032</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001449596011147245</v>
+        <v>0.00193489174628352</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01946984819697792</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0060511968510336</v>
+        <v>0.0006646530233952001</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02200042283697229</v>
+        <v>0.00147738211913664</v>
       </c>
       <c r="R10" t="n">
-        <v>0.005627123756352</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.003914520873984</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.006383115600140196</v>
+        <v>0.00263193276976704</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,29 +1164,29 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01023125272430287</v>
+        <v>0.1858048607406471</v>
       </c>
       <c r="C11" t="n">
-        <v>18.13333333333333</v>
+        <v>23.82608695652174</v>
       </c>
       <c r="D11" t="n">
-        <v>1.99243931993932</v>
+        <v>6.652569916855632</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001252820793503518</v>
+        <v>0.0481278083251732</v>
       </c>
       <c r="F11" t="n">
-        <v>53.333</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
-        <v>4.269230769230769</v>
+        <v>1.842105263157895</v>
       </c>
       <c r="H11" t="n">
-        <v>208.16</v>
+        <v>170.4782608695652</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1195,34 +1195,34 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001161511740577441</v>
+        <v>0.07676095825248759</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001436466055715714</v>
+        <v>0.08911756280416883</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003733471624240996</v>
+        <v>0.08468372714459606</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00203403533684165</v>
+        <v>0.03616248363818105</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0009491489831638106</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.000988375744421858</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0003367711239399382</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0008143018943068831</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.822812045525668e-05</v>
+        <v>0</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002269135389401234</v>
+        <v>0.005403081260026318</v>
       </c>
       <c r="C12" t="n">
-        <v>18.1</v>
+        <v>18.89655172413793</v>
       </c>
       <c r="D12" t="n">
-        <v>1.930296571620101</v>
+        <v>3.549411603721949</v>
       </c>
       <c r="E12" t="n">
-        <v>5.106582284968535e-05</v>
+        <v>0.001155767235993003</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>46.66699999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>1.764705882352941</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>200.3461538461538</v>
+        <v>179.7142857142857</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.0004001374305875547</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.005530728679830144</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.001861990785221414</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.001436466055715714</v>
       </c>
       <c r="M12" t="n">
-        <v>2.100874421556308e-05</v>
+        <v>0.002099202594933024</v>
       </c>
       <c r="N12" t="n">
-        <v>5.749316612800388e-05</v>
+        <v>0.0006434765528338561</v>
       </c>
       <c r="O12" t="n">
-        <v>9.453993402070791e-05</v>
+        <v>0.000199151249463936</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.0008549150483744641</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.0004185601444507391</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.005228065043164381</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.001229474114144064</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.00041469455508768</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.070234193716704</v>
+        <v>0.0272568903980688</v>
       </c>
       <c r="C13" t="n">
-        <v>17.7</v>
+        <v>20.32</v>
       </c>
       <c r="D13" t="n">
-        <v>1.908120711704303</v>
+        <v>5.121603174603174</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009885827140006522</v>
+        <v>0.013863503342661</v>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>36.667</v>
       </c>
       <c r="G13" t="n">
-        <v>1.611111111111111</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="H13" t="n">
-        <v>139.1923076923077</v>
+        <v>156.4761904761905</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01469329172037356</v>
+        <v>0.0049298497256736</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0297748243977408</v>
+        <v>0.0030582194328</v>
       </c>
       <c r="K13" t="n">
-        <v>0.010350373769232</v>
+        <v>0.0182106773158464</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01454845027773694</v>
+        <v>0.0111482292390336</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02404937888662447</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0005871781310976001</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.007647296135961601</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.007297785343641601</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.0088606811032992</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.005627123756352</v>
       </c>
       <c r="S13" t="n">
-        <v>0.009800981638237441</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01475507470341469</v>
+        <v>0.006491580449356801</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.070234193716704</v>
+        <v>0.001845362968145332</v>
       </c>
       <c r="C14" t="n">
-        <v>17.7</v>
+        <v>18.2</v>
       </c>
       <c r="D14" t="n">
-        <v>1.496743688314896</v>
+        <v>1.99243931993932</v>
       </c>
       <c r="E14" t="n">
-        <v>0.009885827140006522</v>
+        <v>0.0005932799099271888</v>
       </c>
       <c r="F14" t="n">
-        <v>80</v>
+        <v>36.667</v>
       </c>
       <c r="G14" t="n">
-        <v>2.458333333333333</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="H14" t="n">
-        <v>140.1923076923077</v>
+        <v>208.16</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01780205627724632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0297748243977408</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.010350373769232</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0194729937941088</v>
+        <v>0.00015256146084768</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0400993732028736</v>
+        <v>0.001239702070875683</v>
       </c>
       <c r="N14" t="n">
-        <v>0.009040096643356799</v>
+        <v>0.000889105941633168</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.0006745208780983681</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.000651828889906992</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.002586030352375698</v>
+        <v>2.201917991616e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>0.005841199116648</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.00489315109248</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01475507470341469</v>
+        <v>0</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03869917919794855</v>
+        <v>0.009787261242574126</v>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>18.13333333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>2.067343968795874</v>
+        <v>2.925068681318681</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008538227524666707</v>
+        <v>0.002208308928844023</v>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>2.347826086956522</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="H15" t="n">
-        <v>158.5862068965517</v>
+        <v>199.3125</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0069917692276992</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02087234762886</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01290079285532352</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007842215616293908</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0047137355524224</v>
+        <v>0.003676412613899165</v>
       </c>
       <c r="N15" t="n">
-        <v>0.00642226080888</v>
+        <v>0.001829977344198864</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.0052112059134912</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01486049986786176</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.005094993575044801</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0115967680891776</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0118740466510848</v>
+        <v>0</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,50 +1509,50 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.153151180875449</v>
+        <v>0.06363706100806657</v>
       </c>
       <c r="C16" t="n">
-        <v>24.86363636363636</v>
+        <v>18.6551724137931</v>
       </c>
       <c r="D16" t="n">
-        <v>15.74621212121212</v>
+        <v>5.021674876847291</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1087775289853148</v>
+        <v>0.01970902761802322</v>
       </c>
       <c r="F16" t="n">
-        <v>56.667</v>
+        <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>1.764705882352941</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>247.952380952381</v>
+        <v>139.1923076923077</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.01469329172037356</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.0149913916595856</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.02985384878788451</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0235238238770976</v>
+        <v>0.01454845027773694</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06641840964155041</v>
+        <v>0.02404937888662447</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1001243566759104</v>
+        <v>0.0027401646117888</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0244063386277056</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.01641325981454219</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.0191077550161344</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5372210972563344</v>
+        <v>0.007099684956626573</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3</v>
+        <v>17.7</v>
       </c>
       <c r="D17" t="n">
-        <v>18.36666666666667</v>
+        <v>1.444973166219969</v>
       </c>
       <c r="E17" t="n">
-        <v>0.27018943936089</v>
+        <v>0.0005511974507860164</v>
       </c>
       <c r="F17" t="n">
-        <v>42.857</v>
+        <v>63.333</v>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
-        <v>217.25</v>
+        <v>140.1923076923077</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.0009921428434360026</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.00105812435114443</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.001310847993502656</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03425205764736</v>
+        <v>0.001183261797183514</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1060427394258624</v>
+        <v>0.0009466226279801906</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1751185378732205</v>
+        <v>0.0008132906430811008</v>
       </c>
       <c r="O17" t="n">
-        <v>0.012416370897168</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.0004577237025071761</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.000666661254156072</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.001091379711553876</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.001378330760593152</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,47 +1647,47 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5020617678439104</v>
+        <v>0.04226442945625974</v>
       </c>
       <c r="C18" t="n">
-        <v>18.03333333333333</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>2.130929163429164</v>
+        <v>1.888700781789017</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06060266017904435</v>
+        <v>0.004369504185862758</v>
       </c>
       <c r="F18" t="n">
-        <v>86.667</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>2.666666666666667</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>90.5</v>
+        <v>166.5</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08161077000672001</v>
+        <v>0.003922633203426814</v>
       </c>
       <c r="J18" t="n">
-        <v>0.08754153126389999</v>
+        <v>0.005601074922595003</v>
       </c>
       <c r="K18" t="n">
-        <v>0.07374266528784565</v>
+        <v>0.009593255724001961</v>
       </c>
       <c r="L18" t="n">
-        <v>0.018403684942272</v>
+        <v>0.003475038645598908</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.008085769075286811</v>
       </c>
       <c r="N18" t="n">
-        <v>0.002654534467670489</v>
+        <v>0.008935437578323201</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1696,16 +1696,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.01083394622198955</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.006481065999687859</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1342272897185476</v>
+        <v>0.006121157261296347</v>
       </c>
       <c r="T18" t="n">
-        <v>0.114193913620752</v>
+        <v>0.008977852883136316</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1726772318743111</v>
+        <v>0.04816456267747868</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>18.13333333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>2.905323095707712</v>
+        <v>3.410113997113996</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03975466451261615</v>
+        <v>0.009832362473168182</v>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>76.667</v>
       </c>
       <c r="G19" t="n">
-        <v>2.538461538461538</v>
+        <v>4.269230769230769</v>
       </c>
       <c r="H19" t="n">
-        <v>154.3461538461538</v>
+        <v>208.16</v>
       </c>
       <c r="I19" t="n">
-        <v>0.028571873783849</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.06656745759917002</v>
+        <v>0.0024343426685088</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06658661171035452</v>
+        <v>0.0225574265363328</v>
       </c>
       <c r="L19" t="n">
-        <v>0.035353016643168</v>
+        <v>0.0024649248628368</v>
       </c>
       <c r="M19" t="n">
-        <v>0.025811372012832</v>
+        <v>0.0164986569514656</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01424946762518837</v>
+        <v>0.01173244182401455</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.01896096048336</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.009052329521088</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.0129607339562064</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01838356865444736</v>
+        <v>0.0107771652811872</v>
       </c>
       <c r="S19" t="n">
-        <v>0.03779469903831559</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02099797928315949</v>
+        <v>0.008889224484672</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,29 +1785,29 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1034152192298484</v>
+        <v>0.1135985802378336</v>
       </c>
       <c r="C20" t="n">
-        <v>34.1875</v>
+        <v>21.8</v>
       </c>
       <c r="D20" t="n">
-        <v>20.59270833333333</v>
+        <v>9.672499999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06770836659830544</v>
+        <v>0.0481647123529429</v>
       </c>
       <c r="F20" t="n">
-        <v>53.333</v>
+        <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3125</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
-        <v>240.6875</v>
+        <v>236.85</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0197089135789248</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04392744840755712</v>
+        <v>0.05475723904902324</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0587830551243264</v>
+        <v>0.04053753264160931</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0760762666103328</v>
+        <v>0.013904704354464</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0002201917991616</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1854,29 +1854,29 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.308071105489064</v>
+        <v>0.007688723444580706</v>
       </c>
       <c r="C21" t="n">
-        <v>18.23333333333333</v>
+        <v>18.13333333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>3.704775132275133</v>
+        <v>2.331685721685722</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08466325810976816</v>
+        <v>0.001883352268064262</v>
       </c>
       <c r="F21" t="n">
-        <v>66.667</v>
+        <v>36.667</v>
       </c>
       <c r="G21" t="n">
-        <v>1.85</v>
+        <v>2.137931034482758</v>
       </c>
       <c r="H21" t="n">
-        <v>179.6333333333333</v>
+        <v>98.82142857142857</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1885,28 +1885,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.071657479332096</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0635262750487172</v>
+        <v>0.00017615343932928</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07677798896018619</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1000608622153069</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.08791769225413569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01712602882368</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.08446802073393689</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -1923,29 +1923,29 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0426261420586848</v>
+        <v>0.000712175899914589</v>
       </c>
       <c r="C22" t="n">
-        <v>28.84210526315789</v>
+        <v>18.2</v>
       </c>
       <c r="D22" t="n">
-        <v>8.362280701754386</v>
+        <v>2.71469067969068</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0128132598191136</v>
+        <v>0.0004148131769323461</v>
       </c>
       <c r="F22" t="n">
-        <v>33.333</v>
+        <v>36.667</v>
       </c>
       <c r="G22" t="n">
-        <v>1.266666666666667</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="H22" t="n">
-        <v>197.9</v>
+        <v>86.53333333333333</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1954,16 +1954,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005602673291986768</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01170197083766592</v>
+        <v>3.425205764735997e-06</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0231785848833504</v>
+        <v>0.0003586312764455904</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01723278848387956</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.331144000183584</v>
+        <v>0.02042872639556396</v>
       </c>
       <c r="C23" t="n">
-        <v>18.92857142857143</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>3.293558293558294</v>
+        <v>1.428948568637457</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06957155302817368</v>
+        <v>0.001570165340694865</v>
       </c>
       <c r="F23" t="n">
-        <v>56.667</v>
+        <v>86.667</v>
       </c>
       <c r="G23" t="n">
-        <v>3.529411764705882</v>
+        <v>4.233333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>137.9285714285714</v>
+        <v>131.3666666666667</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07924680610230109</v>
+        <v>0.002215696660260509</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1744853196386618</v>
+        <v>0.002766579472436374</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07373089032532364</v>
+        <v>0.003579406285570167</v>
       </c>
       <c r="L23" t="n">
-        <v>0.035353016643168</v>
+        <v>0.001956494552473179</v>
       </c>
       <c r="M23" t="n">
-        <v>0.025811372012832</v>
+        <v>0.002419112735733458</v>
       </c>
       <c r="N23" t="n">
-        <v>0.018471645374112</v>
+        <v>0.002118245107934592</v>
       </c>
       <c r="O23" t="n">
-        <v>0.038655893630592</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>5.382466201728e-05</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.00170526315572928</v>
       </c>
       <c r="R23" t="n">
-        <v>0.012599864063136</v>
+        <v>0.0008461656282067201</v>
       </c>
       <c r="S23" t="n">
-        <v>0.062667285062976</v>
+        <v>0.00184838782518432</v>
       </c>
       <c r="T23" t="n">
-        <v>0.148670240693184</v>
+        <v>0.003173057028796611</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06704506660532596</v>
+        <v>0.04296330575406043</v>
       </c>
       <c r="C24" t="n">
-        <v>24.63636363636364</v>
+        <v>32.1764705882353</v>
       </c>
       <c r="D24" t="n">
-        <v>4.960609857978278</v>
+        <v>10.28267973856209</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01307793248738552</v>
+        <v>0.01356698098494381</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>53.333</v>
       </c>
       <c r="G24" t="n">
-        <v>1.733333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="H24" t="n">
-        <v>154.75</v>
+        <v>240.0625</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02057005440031016</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03685521402855936</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.019042513001568</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0016392056159808</v>
+        <v>0.0024955070571648</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.04222463182737408</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.0242473112172</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.0135825719075424</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0144942125575104</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0141045080240736</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.000570867627456</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0061898361319872</v>
+        <v>0</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.08772783799174634</v>
+        <v>0.7513107292430209</v>
       </c>
       <c r="C25" t="n">
-        <v>17.56666666666667</v>
+        <v>36.13333333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>2.354682077182078</v>
+        <v>14.42222222222222</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01137236432559072</v>
+        <v>0.2902481307195456</v>
       </c>
       <c r="F25" t="n">
-        <v>86.667</v>
+        <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>4.266666666666667</v>
+        <v>2.6</v>
       </c>
       <c r="H25" t="n">
-        <v>147.5185185185185</v>
+        <v>159</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01639368721017219</v>
+        <v>0.487194743774592</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03450650150416901</v>
+        <v>0.3289976861816553</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02482610108928197</v>
+        <v>0.205675450920576</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01389971525923249</v>
+        <v>0.129148606647144</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01605932188551939</v>
+        <v>0.1003585289067648</v>
       </c>
       <c r="N25" t="n">
-        <v>0.006961555961429777</v>
+        <v>0.00366986331936</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.000978630218496</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0183493165968</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.00319359661302529</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.005155983208304655</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02666882478368486</v>
+        <v>0.180190288980576</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,67 +2199,550 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.275791284342316</v>
+      </c>
+      <c r="C26" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>34.27291666666667</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7306720040936679</v>
+      </c>
+      <c r="F26" t="n">
+        <v>26.667</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="H26" t="n">
+        <v>173</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3866690322055024</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9718491266070073</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2536155162311629</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.4433398771082422</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2909296379300391</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.03668395374032331</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.006948274551321956</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.0434634145789544</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0008942233621507201</v>
+      </c>
+      <c r="C27" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.490289364774659</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0001043556519680609</v>
+      </c>
+      <c r="F27" t="n">
+        <v>56.667</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.461538461538461</v>
+      </c>
+      <c r="H27" t="n">
+        <v>141</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0002270727928854</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0002492931714484548</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0001653597236841035</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0001483514444856436</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5372210972563344</v>
+      </c>
+      <c r="C28" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14.56017316017316</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.27018943936089</v>
+      </c>
+      <c r="F28" t="n">
+        <v>36.667</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>208.6363636363636</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.06965400580145281</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.190894056995376</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4448282105655361</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.1837486971917184</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.1060427394258624</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.1751185378732205</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0016392056159808</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.06626566177494682</v>
+      </c>
+      <c r="C29" t="n">
+        <v>18.23333333333333</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.529592689016064</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.005554801910710414</v>
+      </c>
+      <c r="F29" t="n">
+        <v>60</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H29" t="n">
+        <v>137.9285714285714</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.00864497469263904</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01440187816092113</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.01231728458754528</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0094697764736652</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.00912633843136176</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.00646033564081836</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.01383138122672972</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1263356008088649</v>
+      </c>
+      <c r="C30" t="n">
+        <v>19.57142857142857</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.222556907378336</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0373077934352873</v>
+      </c>
+      <c r="F30" t="n">
+        <v>50</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.388888888888889</v>
+      </c>
+      <c r="H30" t="n">
+        <v>151.4117647058823</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0237562485539904</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.04403835983232</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.055333383604128</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0016392056159808</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0144266404709952</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.005627123756352</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.01798257492241865</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0006569055341654489</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0061898361319872</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2074422046750341</v>
+      </c>
+      <c r="C31" t="n">
+        <v>18.89655172413793</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.531450845751049</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.03068285957699262</v>
+      </c>
+      <c r="F31" t="n">
+        <v>50</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>149.4347826086957</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01723612472326083</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0256471019404416</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01823616247778647</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.01961777191846597</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.05775451476468716</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.040918976010864</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0072296307391392</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.0602224570706976</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0095090236230528</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.07187304982189249</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0569562787164672</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.01279375517517557</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.05180401896313676</v>
+      </c>
+      <c r="C32" t="n">
+        <v>17.76666666666667</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.080285871535872</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.006347233442155602</v>
+      </c>
+      <c r="F32" t="n">
+        <v>86.667</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="H32" t="n">
+        <v>139.8666666666667</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0107399507396719</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.01670413434627053</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.01120475440148336</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.009329713621548177</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.01541656979088892</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0005541901374824648</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.01159923214026346</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.009562587317011817</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.003633684583469978</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.01019888045220019</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>1.66439628271616</v>
-      </c>
-      <c r="C26" t="n">
-        <v>20.07407407407407</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7.573456790123457</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5570731700242987</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="B33" t="n">
+        <v>0.1671157892614694</v>
+      </c>
+      <c r="C33" t="n">
+        <v>18.23333333333333</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.676753154253155</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.02350929402050434</v>
+      </c>
+      <c r="F33" t="n">
         <v>90</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G33" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>115.4074074074074</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.8629615635043201</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.63803195138016</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.3832968355776</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.61898361319872</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.05137808647104</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.41661686444544</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.74158423223808</v>
-      </c>
-      <c r="U26" t="inlineStr">
+      <c r="H33" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0467713885987656</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.04562219558067537</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.021889205590266</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.01941451795000911</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0087424299518976</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.04615271617280742</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.0566922524387688</v>
+      </c>
+      <c r="U33" t="inlineStr">
         <is>
           <t>min</t>
         </is>
